--- a/Practica_2/BA/BA.xlsx
+++ b/Practica_2/BA/BA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\EUE\Practica_2\BA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDC57EF-64B2-4F25-8DAA-B99A4E3B01B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42DB11F-E45A-45AF-9E16-3D1F2FDB6546}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18135" yWindow="6840" windowWidth="21600" windowHeight="11835" xr2:uid="{5C4F7E80-8C79-4120-8B9D-E7CA74F5DB21}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5C4F7E80-8C79-4120-8B9D-E7CA74F5DB21}"/>
   </bookViews>
   <sheets>
     <sheet name="Propiedades" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
   <si>
     <t>2D_Shell</t>
   </si>
@@ -142,12 +142,6 @@
     <t>Espesor</t>
   </si>
   <si>
-    <t>Masa</t>
-  </si>
-  <si>
-    <t>Frecuencia 1</t>
-  </si>
-  <si>
     <t>MoSy</t>
   </si>
   <si>
@@ -172,26 +166,35 @@
     <t>sigma u</t>
   </si>
   <si>
-    <t>Shell</t>
-  </si>
-  <si>
-    <t>Bar max</t>
-  </si>
-  <si>
-    <t>Bar min</t>
-  </si>
-  <si>
     <t>Rect</t>
   </si>
   <si>
     <t>Ti</t>
+  </si>
+  <si>
+    <t>Masa [kg]</t>
+  </si>
+  <si>
+    <t>Frecuencia [Hz]</t>
+  </si>
+  <si>
+    <t>sigma Shell</t>
+  </si>
+  <si>
+    <t>sigma Bar max</t>
+  </si>
+  <si>
+    <t>sigma Bar min</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +203,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -407,7 +418,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -416,10 +427,10 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
@@ -432,6 +443,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -459,9 +473,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -471,8 +482,10 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="20% - Énfasis1" xfId="1" builtinId="30"/>
     <cellStyle name="20% - Énfasis2" xfId="3" builtinId="34"/>
     <cellStyle name="20% - Énfasis3" xfId="4" builtinId="38"/>
@@ -480,6 +493,7 @@
     <cellStyle name="20% - Énfasis5" xfId="6" builtinId="46"/>
     <cellStyle name="20% - Énfasis6" xfId="7" builtinId="50"/>
     <cellStyle name="40% - Énfasis1" xfId="2" builtinId="31"/>
+    <cellStyle name="Millares" xfId="8" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -792,114 +806,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37681EE4-180F-4F65-911D-27C4AC2AD661}">
-  <dimension ref="A1:X7"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="15" max="15" width="13" customWidth="1"/>
-    <col min="16" max="16" width="15.28515625" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" customWidth="1"/>
+    <col min="17" max="17" width="15.42578125" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" customWidth="1"/>
     <col min="19" max="19" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="11" t="s">
+      <c r="D1" s="18"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="13"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="18" t="s">
+      <c r="H1" s="15"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="26"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="25"/>
       <c r="V1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="D2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" s="8" t="s">
+      <c r="I2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="N2" s="22" t="s">
+      <c r="M2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="T2" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="T2" s="10" t="s">
-        <v>38</v>
       </c>
       <c r="V2" t="s">
         <v>0</v>
@@ -913,15 +929,15 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="21">
+        <v>39</v>
+      </c>
+      <c r="D3" s="11">
         <v>448000000</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="11">
         <v>523000000</v>
       </c>
       <c r="F3">
@@ -938,7 +954,7 @@
         <v>-7.4999999999999997E-3</v>
       </c>
       <c r="J3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K3">
         <v>5.0000000000000001E-3</v>
@@ -950,25 +966,28 @@
         <f>-(F3+L3)/2</f>
         <v>-7.4999999999999997E-3</v>
       </c>
-      <c r="N3" s="21">
+      <c r="N3" s="27">
         <v>2.1090200000000001</v>
       </c>
-      <c r="P3" s="21">
-        <v>103000000</v>
-      </c>
-      <c r="Q3" s="21">
-        <v>326000000</v>
-      </c>
-      <c r="R3" s="21">
-        <v>220000000</v>
-      </c>
-      <c r="S3" s="21">
-        <f xml:space="preserve"> D3/( MAX(P3,Q3,R3)*1.1*1.2*1.1*1.25 ) - 1</f>
-        <v>-0.24284676097280689</v>
-      </c>
-      <c r="T3" s="21">
+      <c r="O3">
+        <v>122.06</v>
+      </c>
+      <c r="P3" s="11">
+        <v>104000000</v>
+      </c>
+      <c r="Q3" s="11">
+        <v>414000000</v>
+      </c>
+      <c r="R3" s="11">
+        <v>21000000</v>
+      </c>
+      <c r="S3" s="27">
+        <f xml:space="preserve"> D3/( MAX(P3:R3)*1.1*1.2*1.1*1.25 ) - 1</f>
+        <v>-0.4037875460800362</v>
+      </c>
+      <c r="T3" s="27">
         <f xml:space="preserve"> E3/( MAX(P3:R3)*1.1*1.2*1.1*1.25 ) - 1</f>
-        <v>-0.11609119640352228</v>
+        <v>-0.30397519330325651</v>
       </c>
       <c r="V3" t="s">
         <v>2</v>
@@ -982,18 +1001,18 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="21">
+        <v>44</v>
+      </c>
+      <c r="D4" s="11">
         <v>1000000000</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="11">
         <v>1170000000</v>
       </c>
       <c r="F4">
@@ -1010,7 +1029,7 @@
         <v>-7.4999999999999997E-3</v>
       </c>
       <c r="J4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K4">
         <v>5.0000000000000001E-3</v>
@@ -1022,22 +1041,29 @@
         <f>-(F4+L4)/2</f>
         <v>-7.4999999999999997E-3</v>
       </c>
-      <c r="P4" s="21">
-        <v>103000000</v>
-      </c>
-      <c r="Q4" s="21">
-        <v>326000000</v>
-      </c>
-      <c r="R4" s="21">
-        <v>220000000</v>
-      </c>
-      <c r="S4" s="21">
-        <f xml:space="preserve"> D4/( MAX(P4,Q4,R4)*1.1*1.2*1.1*1.25 ) - 1</f>
-        <v>0.69007419425712757</v>
-      </c>
-      <c r="T4" s="21">
+      <c r="N4" s="27">
+        <f xml:space="preserve"> (3.059 - N3)/N3</f>
+        <v>0.45043669571649392</v>
+      </c>
+      <c r="O4" s="27">
+        <v>148.09710000000001</v>
+      </c>
+      <c r="P4" s="11">
+        <v>109000000</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>437000000</v>
+      </c>
+      <c r="R4" s="11">
+        <v>22100000</v>
+      </c>
+      <c r="S4" s="27">
+        <f>D4/(MAX(P4:R4)*1.1*1.2*1.1*1.25)-1</f>
+        <v>0.26078761402247985</v>
+      </c>
+      <c r="T4" s="27">
         <f xml:space="preserve"> E4/( MAX(P4:R4)*1.1*1.2*1.1*1.25 ) - 1</f>
-        <v>0.97738680728083915</v>
+        <v>0.47512150840630141</v>
       </c>
       <c r="V4" t="s">
         <v>5</v>
@@ -1049,8 +1075,208 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="11">
+        <v>448000000</v>
+      </c>
+      <c r="E5" s="11">
+        <v>523000000</v>
+      </c>
+      <c r="F5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H5">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="I5">
+        <f>-(F5+H5)/2</f>
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="J5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L5">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="M5">
+        <f>-(F5+L5)/2</f>
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="N5" s="27">
+        <v>4.7</v>
+      </c>
+      <c r="O5">
+        <v>133.19999999999999</v>
+      </c>
+      <c r="P5" s="11">
+        <v>86700000</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>365000000</v>
+      </c>
+      <c r="R5" s="11">
+        <v>26500000</v>
+      </c>
+      <c r="S5" s="27">
+        <f xml:space="preserve"> D5/( MAX(P5:R5)*1.1*1.2*1.1*1.25 ) - 1</f>
+        <v>-0.32374806596475347</v>
+      </c>
+      <c r="T5" s="27">
+        <f xml:space="preserve"> E5/( MAX(P5:R5)*1.1*1.2*1.1*1.25 ) - 1</f>
+        <v>-0.21053624665081716</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="11">
+        <v>448000000</v>
+      </c>
+      <c r="E6" s="11">
+        <v>523000000</v>
+      </c>
+      <c r="F6">
+        <v>2E-3</v>
+      </c>
+      <c r="G6">
+        <f>0.005*1.5</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="H6">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="I6">
+        <f>-(F6+H6)/2</f>
+        <v>-7.4999999999999997E-3</v>
+      </c>
+      <c r="J6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L6">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="M6">
+        <f>-(F6+L6)/2</f>
+        <v>-7.4999999999999997E-3</v>
+      </c>
+      <c r="N6" s="27">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="O6">
+        <v>123.7</v>
+      </c>
+      <c r="P6" s="11">
+        <v>102000000</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>402000000</v>
+      </c>
+      <c r="R6" s="11">
+        <v>20400000</v>
+      </c>
+      <c r="S6" s="27">
+        <f xml:space="preserve"> D6/( MAX(P6:R6)*1.1*1.2*1.1*1.25 ) - 1</f>
+        <v>-0.38599015939585823</v>
+      </c>
+      <c r="T6" s="27">
+        <f xml:space="preserve"> E6/( MAX(P6:R6)*1.1*1.2*1.1*1.25 ) - 1</f>
+        <v>-0.28319833340186129</v>
+      </c>
+    </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D7" s="1"/>
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="11">
+        <v>448000000</v>
+      </c>
+      <c r="E7" s="11">
+        <v>523000000</v>
+      </c>
+      <c r="F7">
+        <v>2E-3</v>
+      </c>
+      <c r="G7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H7">
+        <f xml:space="preserve"> 0.013*1.5</f>
+        <v>1.95E-2</v>
+      </c>
+      <c r="I7">
+        <f>-(F7+H7)/2</f>
+        <v>-1.0749999999999999E-2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L7">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="M7">
+        <f>-(F7+L7)/2</f>
+        <v>-7.4999999999999997E-3</v>
+      </c>
+      <c r="N7" s="27">
+        <v>2.27</v>
+      </c>
+      <c r="O7">
+        <v>123.4</v>
+      </c>
+      <c r="P7" s="11">
+        <v>104000000</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>414000000</v>
+      </c>
+      <c r="R7" s="11">
+        <v>21000000</v>
+      </c>
+      <c r="S7" s="27">
+        <f xml:space="preserve"> D7/( MAX(P7:R7)*1.1*1.2*1.1*1.25 ) - 1</f>
+        <v>-0.4037875460800362</v>
+      </c>
+      <c r="T7" s="27">
+        <f xml:space="preserve"> E7/( MAX(P7:R7)*1.1*1.2*1.1*1.25 ) - 1</f>
+        <v>-0.30397519330325651</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Q9" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Practica_2/BA/BA.xlsx
+++ b/Practica_2/BA/BA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\EUE\Practica_2\BA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42DB11F-E45A-45AF-9E16-3D1F2FDB6546}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8955E6-5638-4FB3-B974-5A004A71EBC5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5C4F7E80-8C79-4120-8B9D-E7CA74F5DB21}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="53">
   <si>
     <t>2D_Shell</t>
   </si>
@@ -185,6 +185,15 @@
   </si>
   <si>
     <t>sigma Bar min</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>I -&gt; t = 0,002</t>
+  </si>
+  <si>
+    <t>G2</t>
   </si>
 </sst>
 </file>
@@ -194,7 +203,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,15 +219,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF353535"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF10A567"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -267,6 +287,11 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -418,7 +443,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -428,8 +453,9 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" applyBorder="1"/>
@@ -446,6 +472,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="7" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="5" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -482,10 +509,20 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="8" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="9"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="10">
     <cellStyle name="20% - Énfasis1" xfId="1" builtinId="30"/>
     <cellStyle name="20% - Énfasis2" xfId="3" builtinId="34"/>
     <cellStyle name="20% - Énfasis3" xfId="4" builtinId="38"/>
@@ -493,6 +530,7 @@
     <cellStyle name="20% - Énfasis5" xfId="6" builtinId="46"/>
     <cellStyle name="20% - Énfasis6" xfId="7" builtinId="50"/>
     <cellStyle name="40% - Énfasis1" xfId="2" builtinId="31"/>
+    <cellStyle name="Incorrecto" xfId="9" builtinId="27"/>
     <cellStyle name="Millares" xfId="8" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -806,10 +844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37681EE4-180F-4F65-911D-27C4AC2AD661}">
-  <dimension ref="A1:X9"/>
+  <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,34 +862,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="20"/>
       <c r="F1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="20" t="s">
+      <c r="H1" s="16"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="23" t="s">
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="26"/>
       <c r="V1" t="s">
         <v>8</v>
       </c>
@@ -966,7 +1004,7 @@
         <f>-(F3+L3)/2</f>
         <v>-7.4999999999999997E-3</v>
       </c>
-      <c r="N3" s="27">
+      <c r="N3" s="14">
         <v>2.1090200000000001</v>
       </c>
       <c r="O3">
@@ -981,11 +1019,11 @@
       <c r="R3" s="11">
         <v>21000000</v>
       </c>
-      <c r="S3" s="27">
+      <c r="S3" s="14">
         <f xml:space="preserve"> D3/( MAX(P3:R3)*1.1*1.2*1.1*1.25 ) - 1</f>
         <v>-0.4037875460800362</v>
       </c>
-      <c r="T3" s="27">
+      <c r="T3" s="14">
         <f xml:space="preserve"> E3/( MAX(P3:R3)*1.1*1.2*1.1*1.25 ) - 1</f>
         <v>-0.30397519330325651</v>
       </c>
@@ -1006,7 +1044,7 @@
       <c r="B4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="32" t="s">
         <v>44</v>
       </c>
       <c r="D4" s="11">
@@ -1041,11 +1079,10 @@
         <f>-(F4+L4)/2</f>
         <v>-7.4999999999999997E-3</v>
       </c>
-      <c r="N4" s="27">
-        <f xml:space="preserve"> (3.059 - N3)/N3</f>
-        <v>0.45043669571649392</v>
-      </c>
-      <c r="O4" s="27">
+      <c r="N4" s="31">
+        <v>3.0590000000000002</v>
+      </c>
+      <c r="O4" s="14">
         <v>148.09710000000001</v>
       </c>
       <c r="P4" s="11">
@@ -1057,11 +1094,11 @@
       <c r="R4" s="11">
         <v>22100000</v>
       </c>
-      <c r="S4" s="27">
+      <c r="S4" s="14">
         <f>D4/(MAX(P4:R4)*1.1*1.2*1.1*1.25)-1</f>
         <v>0.26078761402247985</v>
       </c>
-      <c r="T4" s="27">
+      <c r="T4" s="14">
         <f xml:space="preserve"> E4/( MAX(P4:R4)*1.1*1.2*1.1*1.25 ) - 1</f>
         <v>0.47512150840630141</v>
       </c>
@@ -1091,7 +1128,7 @@
       <c r="E5" s="11">
         <v>523000000</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="32">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G5">
@@ -1117,7 +1154,7 @@
         <f>-(F5+L5)/2</f>
         <v>-8.0000000000000002E-3</v>
       </c>
-      <c r="N5" s="27">
+      <c r="N5" s="14">
         <v>4.7</v>
       </c>
       <c r="O5">
@@ -1132,11 +1169,11 @@
       <c r="R5" s="11">
         <v>26500000</v>
       </c>
-      <c r="S5" s="27">
+      <c r="S5" s="14">
         <f xml:space="preserve"> D5/( MAX(P5:R5)*1.1*1.2*1.1*1.25 ) - 1</f>
         <v>-0.32374806596475347</v>
       </c>
-      <c r="T5" s="27">
+      <c r="T5" s="14">
         <f xml:space="preserve"> E5/( MAX(P5:R5)*1.1*1.2*1.1*1.25 ) - 1</f>
         <v>-0.21053624665081716</v>
       </c>
@@ -1160,7 +1197,7 @@
       <c r="F6">
         <v>2E-3</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="32">
         <f>0.005*1.5</f>
         <v>7.4999999999999997E-3</v>
       </c>
@@ -1184,7 +1221,7 @@
         <f>-(F6+L6)/2</f>
         <v>-7.4999999999999997E-3</v>
       </c>
-      <c r="N6" s="27">
+      <c r="N6" s="14">
         <v>2.2799999999999998</v>
       </c>
       <c r="O6">
@@ -1199,11 +1236,11 @@
       <c r="R6" s="11">
         <v>20400000</v>
       </c>
-      <c r="S6" s="27">
+      <c r="S6" s="14">
         <f xml:space="preserve"> D6/( MAX(P6:R6)*1.1*1.2*1.1*1.25 ) - 1</f>
         <v>-0.38599015939585823</v>
       </c>
-      <c r="T6" s="27">
+      <c r="T6" s="14">
         <f xml:space="preserve"> E6/( MAX(P6:R6)*1.1*1.2*1.1*1.25 ) - 1</f>
         <v>-0.28319833340186129</v>
       </c>
@@ -1230,7 +1267,7 @@
       <c r="G7">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="32">
         <f xml:space="preserve"> 0.013*1.5</f>
         <v>1.95E-2</v>
       </c>
@@ -1251,32 +1288,374 @@
         <f>-(F7+L7)/2</f>
         <v>-7.4999999999999997E-3</v>
       </c>
-      <c r="N7" s="27">
+      <c r="N7" s="14">
         <v>2.27</v>
       </c>
       <c r="O7">
         <v>123.4</v>
       </c>
-      <c r="P7" s="11">
-        <v>104000000</v>
+      <c r="P7" s="27" t="s">
+        <v>50</v>
       </c>
       <c r="Q7" s="11">
         <v>414000000</v>
       </c>
-      <c r="R7" s="11">
-        <v>21000000</v>
-      </c>
-      <c r="S7" s="27">
+      <c r="R7" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="S7" s="14">
         <f xml:space="preserve"> D7/( MAX(P7:R7)*1.1*1.2*1.1*1.25 ) - 1</f>
         <v>-0.4037875460800362</v>
       </c>
-      <c r="T7" s="27">
+      <c r="T7" s="14">
         <f xml:space="preserve"> E7/( MAX(P7:R7)*1.1*1.2*1.1*1.25 ) - 1</f>
         <v>-0.30397519330325651</v>
       </c>
     </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="11">
+        <v>448000000</v>
+      </c>
+      <c r="E8" s="11">
+        <v>523000000</v>
+      </c>
+      <c r="F8">
+        <v>2E-3</v>
+      </c>
+      <c r="G8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H8">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="I8">
+        <f>-(F8+H8)/2</f>
+        <v>-7.4999999999999997E-3</v>
+      </c>
+      <c r="J8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="32">
+        <f xml:space="preserve"> 0.005*1.5</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="L8">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="M8">
+        <f>-(F8+L8)/2</f>
+        <v>-7.4999999999999997E-3</v>
+      </c>
+      <c r="N8" s="14">
+        <v>2.4</v>
+      </c>
+      <c r="O8">
+        <v>142.80000000000001</v>
+      </c>
+      <c r="P8" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>295000000</v>
+      </c>
+      <c r="R8" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="S8" s="14">
+        <f xml:space="preserve"> D8/( MAX(P8:R8)*1.1*1.2*1.1*1.25 ) - 1</f>
+        <v>-0.16328150534622043</v>
+      </c>
+      <c r="T8" s="14">
+        <f xml:space="preserve"> E8/( MAX(P8:R8)*1.1*1.2*1.1*1.25 ) - 1</f>
+        <v>-2.3205864500163487E-2</v>
+      </c>
+    </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="Q9" s="26"/>
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="11">
+        <v>448000000</v>
+      </c>
+      <c r="E9" s="11">
+        <v>523000000</v>
+      </c>
+      <c r="F9">
+        <v>2E-3</v>
+      </c>
+      <c r="G9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H9">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="I9">
+        <f>-(F9+H9)/2</f>
+        <v>-7.4999999999999997E-3</v>
+      </c>
+      <c r="J9" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L9" s="32">
+        <f xml:space="preserve"> 0.013*1.5</f>
+        <v>1.95E-2</v>
+      </c>
+      <c r="M9">
+        <f>-(F9+L9)/2</f>
+        <v>-1.0749999999999999E-2</v>
+      </c>
+      <c r="N9" s="14">
+        <v>2.4</v>
+      </c>
+      <c r="O9">
+        <v>195.5</v>
+      </c>
+      <c r="P9" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>214000000</v>
+      </c>
+      <c r="R9" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="S9" s="14">
+        <f xml:space="preserve"> D9/( MAX(P9:R9)*1.1*1.2*1.1*1.25 ) - 1</f>
+        <v>0.15342035477974303</v>
+      </c>
+      <c r="T9" s="14">
+        <f xml:space="preserve"> E9/( MAX(P9:R9)*1.1*1.2*1.1*1.25 ) - 1</f>
+        <v>0.34651528024510192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="11">
+        <v>448000000</v>
+      </c>
+      <c r="E10" s="11">
+        <v>523000000</v>
+      </c>
+      <c r="F10">
+        <v>2E-3</v>
+      </c>
+      <c r="G10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H10">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="I10">
+        <f>-(F10+H10)/2</f>
+        <v>-7.4999999999999997E-3</v>
+      </c>
+      <c r="J10" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10">
+        <v>0.01</v>
+      </c>
+      <c r="L10">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="M10">
+        <f>-(F10+L10)/2</f>
+        <v>-7.4999999999999997E-3</v>
+      </c>
+      <c r="N10" s="14">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="O10">
+        <v>120</v>
+      </c>
+      <c r="P10" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>393000000</v>
+      </c>
+      <c r="R10" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="S10" s="14">
+        <f xml:space="preserve"> D10/( MAX(P10:R10)*1.1*1.2*1.1*1.25 ) - 1</f>
+        <v>-0.37192886533622149</v>
+      </c>
+      <c r="T10" s="14">
+        <f xml:space="preserve"> E10/( MAX(P10:R10)*1.1*1.2*1.1*1.25 ) - 1</f>
+        <v>-0.26678302805991927</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="11">
+        <v>448000000</v>
+      </c>
+      <c r="E11" s="11">
+        <v>523000000</v>
+      </c>
+      <c r="F11">
+        <v>2E-3</v>
+      </c>
+      <c r="G11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H11">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="I11">
+        <f>-(F11+H11)/2</f>
+        <v>-7.4999999999999997E-3</v>
+      </c>
+      <c r="J11" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11">
+        <v>0.01</v>
+      </c>
+      <c r="L11" s="32">
+        <f xml:space="preserve"> 0.013*1.5</f>
+        <v>1.95E-2</v>
+      </c>
+      <c r="M11">
+        <f>-(F11+L11)/2</f>
+        <v>-1.0749999999999999E-2</v>
+      </c>
+      <c r="N11" s="14">
+        <v>2.16</v>
+      </c>
+      <c r="O11">
+        <v>176</v>
+      </c>
+      <c r="P11" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>237000000</v>
+      </c>
+      <c r="R11" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="S11" s="14">
+        <f xml:space="preserve"> D11/( MAX(P11:R11)*1.1*1.2*1.1*1.25 ) - 1</f>
+        <v>4.1485046088038047E-2</v>
+      </c>
+      <c r="T11" s="14">
+        <f xml:space="preserve"> E11/( MAX(P11:R11)*1.1*1.2*1.1*1.25 ) - 1</f>
+        <v>0.21584080157152652</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="11">
+        <v>448000000</v>
+      </c>
+      <c r="E12" s="11">
+        <v>523000000</v>
+      </c>
+      <c r="F12">
+        <v>2E-3</v>
+      </c>
+      <c r="G12">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H12">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="I12">
+        <f>-(F12+H12)/2</f>
+        <v>-7.4999999999999997E-3</v>
+      </c>
+      <c r="J12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L12">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="M12">
+        <f>-(F12+L12)/2</f>
+        <v>-7.4999999999999997E-3</v>
+      </c>
+      <c r="N12" s="14">
+        <v>2.65</v>
+      </c>
+      <c r="O12">
+        <v>113</v>
+      </c>
+      <c r="P12" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>352000000</v>
+      </c>
+      <c r="R12" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="S12" s="14">
+        <f xml:space="preserve"> D12/( MAX(P12:R12)*1.1*1.2*1.1*1.25 ) - 1</f>
+        <v>-0.29877285249186092</v>
+      </c>
+      <c r="T12" s="14">
+        <f xml:space="preserve"> E12/( MAX(P12:R12)*1.1*1.2*1.1*1.25 ) - 1</f>
+        <v>-0.18137991485098937</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Q16" s="30"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="28"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="29"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="4">
